--- a/ELISA_data/092518 IL17 ELISA Plate1.xlsx
+++ b/ELISA_data/092518 IL17 ELISA Plate1.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Hiutung Chu\Epoch Plate Reader\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9435" windowHeight="6915"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw data" sheetId="1" r:id="rId1"/>
+    <sheet name="standards" sheetId="2" r:id="rId2"/>
+    <sheet name="samples" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">290670240</definedName>
     <definedName name="MethodPointer2">0</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="73">
   <si>
     <t>Software Version</t>
   </si>
@@ -122,13 +124,133 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>experimenter</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>agConc</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>OD450</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>sampleName</t>
+  </si>
+  <si>
+    <t>dilutionFactor</t>
+  </si>
+  <si>
+    <t>cytokine</t>
+  </si>
+  <si>
+    <t>B8.a, 2FL, HK</t>
+  </si>
+  <si>
+    <t>B8.b, 2FL, HK</t>
+  </si>
+  <si>
+    <t>B8.a, LNT, HK</t>
+  </si>
+  <si>
+    <t>B8.b, LNT, HK</t>
+  </si>
+  <si>
+    <t>B8.a, 3SL, HK</t>
+  </si>
+  <si>
+    <t>B8.b, 3SL, HK</t>
+  </si>
+  <si>
+    <t>B8.a, 6SL, HK</t>
+  </si>
+  <si>
+    <t>B8.b, 6SL, HK</t>
+  </si>
+  <si>
+    <t>B8.a, pHMO, HK</t>
+  </si>
+  <si>
+    <t>B8.b, pHMO, HK</t>
+  </si>
+  <si>
+    <t>B8.a, Lac, HK</t>
+  </si>
+  <si>
+    <t>B8.b, Lac, HK</t>
+  </si>
+  <si>
+    <t>B8.a, X, HK</t>
+  </si>
+  <si>
+    <t>B8.b, X, HK</t>
+  </si>
+  <si>
+    <t>B10.a, 2FL, HK</t>
+  </si>
+  <si>
+    <t>B10.b, 2FL, HK</t>
+  </si>
+  <si>
+    <t>B10.a, LNT, HK</t>
+  </si>
+  <si>
+    <t>B10.b, LNT, HK</t>
+  </si>
+  <si>
+    <t>B10.a, 3SL, HK</t>
+  </si>
+  <si>
+    <t>B10.b, 3SL, HK</t>
+  </si>
+  <si>
+    <t>B10.a, 6SL, HK</t>
+  </si>
+  <si>
+    <t>B10.b, 6SL, HK</t>
+  </si>
+  <si>
+    <t>B10.a, pHMO, HK</t>
+  </si>
+  <si>
+    <t>B10.b, pHMO, HK</t>
+  </si>
+  <si>
+    <t>B10.a, Lac, HK</t>
+  </si>
+  <si>
+    <t>B10.b, Lac, HK</t>
+  </si>
+  <si>
+    <t>B10.a, X, HK</t>
+  </si>
+  <si>
+    <t>B10.b, X, HK</t>
+  </si>
+  <si>
+    <t>B12.a, 2FL, HK</t>
+  </si>
+  <si>
+    <t>B12.b, 2FL, HK</t>
+  </si>
+  <si>
+    <t>IL17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -158,6 +280,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="12">
@@ -252,8 +386,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -302,7 +454,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -396,7 +566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -573,7 +743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,17 +753,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -601,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -609,12 +779,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -622,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -630,7 +800,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -638,7 +808,7 @@
         <v>0.67042824074074081</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -646,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -654,7 +824,7 @@
         <v>17091420</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -662,13 +832,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -676,12 +846,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -689,28 +859,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="B18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -718,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="B24" s="5"/>
       <c r="C24" s="6">
         <v>1</v>
@@ -757,7 +927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
@@ -801,7 +971,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
@@ -845,7 +1015,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
@@ -889,7 +1059,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
@@ -933,7 +1103,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
@@ -977,7 +1147,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
@@ -1021,7 +1191,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
@@ -1065,7 +1235,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
@@ -1112,7 +1282,1828 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7">
+        <v>0.624</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D3">
+        <f>D2/2</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D13" si="0">D3/2</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3.90625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.48828125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.244140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.1220703125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D15">
+        <f>D14/2</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D25" si="1">D15/2</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11">
+        <v>0.104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>3.90625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.48828125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.244140625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.1220703125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>0.129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10">
+        <v>0.161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11">
+        <v>0.109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11">
+        <v>9.4E-2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11">
+        <v>0.104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11">
+        <v>0.112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="15">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11">
+        <v>0.115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>0.152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>0.127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>0.156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>0.128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="10">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="14">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="11">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11">
+        <v>0.108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="11">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="11">
+        <v>0.109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="11">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="11">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="11">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="10">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="10">
+        <v>0.129</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="10">
+        <v>0.129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D48">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="16">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="11">
+        <v>0.111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="10">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="10">
+        <v>0.154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D52">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="9">
+        <v>0.188</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D53">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="9">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D54">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="10">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="9">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D56">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D57">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="10">
+        <v>0.152</v>
+      </c>
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D58">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="10">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D59">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="10">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D60">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>